--- a/casos de uso/caso 1/data.xlsx
+++ b/casos de uso/caso 1/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Sprint</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Data Final</t>
+  </si>
+  <si>
+    <t>OUT25 - Semana 3</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -386,12 +389,23 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45950</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>45957</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>45961</v>
       </c>
     </row>
